--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56738.18100018705</v>
+        <v>11277738.02633882</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56738.18100018705</v>
+        <v>11277738.02633882</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.9347585209323</v>
+        <v>44636.71790606214</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.9347585209323</v>
+        <v>44636.71790606214</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189923244.574298</v>
+        <v>49545556.89426325</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10657.15663445415</v>
+        <v>1203488.538675721</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19863.99340941707</v>
+        <v>2179505.744933481</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29070.34286097245</v>
+        <v>3155522.951191243</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38303.83824678598</v>
+        <v>4131547.569633631</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47537.174549007</v>
+        <v>5107564.775891392</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56770.51085122802</v>
+        <v>6083581.982149153</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66003.84715344907</v>
+        <v>7059599.18840691</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75236.97913680617</v>
+        <v>8035616.394664668</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84470.40459634962</v>
+        <v>9011633.600922424</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93703.53657970668</v>
+        <v>9987650.807180183</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102936.9620392501</v>
+        <v>10963668.01343795</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112170.2983414711</v>
+        <v>11939685.21969571</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121403.6346436921</v>
+        <v>12915702.42595348</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130654.2123604757</v>
+        <v>13883189.14350714</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139920.0848707012</v>
+        <v>14852287.65848948</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>388</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
